--- a/DATA_goal/Junction_Flooding_82.xlsx
+++ b/DATA_goal/Junction_Flooding_82.xlsx
@@ -444,15 +444,15 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
@@ -467,9 +467,9 @@
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>41514.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.02</v>
+        <v>0.4</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.05</v>
+        <v>0.6</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.47</v>
+        <v>0.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>0.16</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>26.97</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>3.51</v>
+        <v>0.35</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41514.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.54</v>
+        <v>1.45</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.57</v>
+        <v>0.96</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G3" s="4" t="n">
         <v>0.99</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>29.77</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>23.57</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>9.890000000000001</v>
-      </c>
       <c r="H3" s="4" t="n">
-        <v>34.99</v>
+        <v>3.5</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.92</v>
+        <v>1.59</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.14</v>
+        <v>0.71</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>1</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>151.32</v>
+        <v>15.13</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>28.43</v>
+        <v>2.84</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.09</v>
+        <v>1.01</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.99</v>
+        <v>2</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.37</v>
+        <v>1.74</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.48</v>
+        <v>0.85</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.38</v>
+        <v>3.04</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.32</v>
+        <v>0.53</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.75</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41514.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.43</v>
+        <v>0.84</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="4" t="n">
         <v>0.57</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>17.19</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>25.52</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>5.72</v>
-      </c>
       <c r="P4" s="4" t="n">
-        <v>8.31</v>
+        <v>0.83</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>83.98999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.51</v>
+        <v>1.65</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.69</v>
+        <v>1.17</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.16</v>
+        <v>0.42</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22.67</v>
+        <v>2.27</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41514.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.72</v>
+        <v>0.67</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.41</v>
+        <v>2.04</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.4</v>
+        <v>1.64</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28.39</v>
+        <v>2.84</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.99</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.28</v>
+        <v>0.73</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>102.35</v>
+        <v>10.24</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>19.86</v>
+        <v>1.99</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.82</v>
+        <v>1.38</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.35</v>
+        <v>0.74</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.05</v>
+        <v>0.5</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>25.14</v>
+        <v>2.51</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.7</v>
+        <v>0.37</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.17</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41514.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>8.69</v>
+        <v>0.87</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>18.25</v>
+        <v>1.83</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>14.72</v>
+        <v>1.47</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>26.17</v>
+        <v>2.62</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>4.48</v>
+        <v>0.45</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>6.55</v>
+        <v>0.66</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>7.19</v>
+        <v>0.72</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>6.3</v>
+        <v>0.63</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>90.95</v>
+        <v>9.1</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>17.86</v>
+        <v>1.79</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>6.12</v>
+        <v>0.61</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>6.57</v>
+        <v>0.66</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>23.31</v>
+        <v>2.33</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.32</v>
+        <v>0.33</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>7.33</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41514.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>9.18</v>
+        <v>0.92</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>27.19</v>
+        <v>2.72</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>22.18</v>
+        <v>2.22</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>36.96</v>
+        <v>3.7</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>14.91</v>
+        <v>1.49</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>10.81</v>
+        <v>1.08</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>11.79</v>
+        <v>1.18</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>9.57</v>
+        <v>0.96</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>13.69</v>
+        <v>1.37</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>7.93</v>
+        <v>0.79</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>140.19</v>
+        <v>14.02</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>26.87</v>
+        <v>2.69</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>18.46</v>
+        <v>1.85</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>17.91</v>
+        <v>1.79</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>6.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>8.48</v>
+        <v>0.85</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>11.33</v>
+        <v>1.13</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>33.06</v>
+        <v>3.31</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41514.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>21.72</v>
+        <v>2.17</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>15.99</v>
+        <v>1.6</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>46.81</v>
+        <v>4.68</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>38.44</v>
+        <v>3.84</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>16.68</v>
+        <v>1.67</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>63.85</v>
+        <v>6.38</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>25.86</v>
+        <v>2.59</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17.3</v>
+        <v>1.73</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>18.69</v>
+        <v>1.87</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>20.08</v>
+        <v>2.01</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>23.83</v>
+        <v>2.38</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>247.81</v>
+        <v>24.78</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>46.68</v>
+        <v>4.67</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>15.58</v>
+        <v>1.56</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>31.85</v>
+        <v>3.18</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>16.77</v>
+        <v>1.68</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>31.27</v>
+        <v>3.13</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>11.92</v>
+        <v>1.19</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.39</v>
+        <v>1.44</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>19.63</v>
+        <v>1.96</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>57.61</v>
+        <v>5.76</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>19.26</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41514.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>11.31</v>
+        <v>1.13</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>24.21</v>
+        <v>2.42</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>19.79</v>
+        <v>1.98</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>37.21</v>
+        <v>3.72</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>13.31</v>
+        <v>1.33</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>6.03</v>
+        <v>0.6</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>10.46</v>
+        <v>1.05</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>7.08</v>
+        <v>0.71</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>124.22</v>
+        <v>12.42</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>24.14</v>
+        <v>2.41</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>16.55</v>
+        <v>1.66</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>17.56</v>
+        <v>1.76</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>7.05</v>
+        <v>0.7</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>6.12</v>
+        <v>0.61</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>10.11</v>
+        <v>1.01</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>33.67</v>
+        <v>3.37</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>9.9</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41514.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>22.62</v>
+        <v>2.26</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>48.85</v>
+        <v>4.89</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>40.19</v>
+        <v>4.02</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>17.47</v>
+        <v>1.75</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>66.72</v>
+        <v>6.67</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>27.04</v>
+        <v>2.7</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>12.18</v>
+        <v>1.22</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>18.11</v>
+        <v>1.81</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>19.54</v>
+        <v>1.95</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>20.9</v>
+        <v>2.09</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>24.93</v>
+        <v>2.49</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>259.28</v>
+        <v>25.93</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>48.81</v>
+        <v>4.88</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>16.25</v>
+        <v>1.62</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>33.25</v>
+        <v>3.32</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>17.49</v>
+        <v>1.75</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>32.64</v>
+        <v>3.26</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>14.28</v>
+        <v>1.43</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>12.47</v>
+        <v>1.25</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>20.52</v>
+        <v>2.05</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>60.21</v>
+        <v>6.02</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>9.17</v>
+        <v>0.92</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>20.15</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_82.xlsx
+++ b/DATA_goal/Junction_Flooding_82.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,19 +444,19 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
@@ -469,7 +469,7 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="6" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41514.34027777778</v>
+        <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.59</v>
+        <v>2.02</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.37</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.8</v>
+        <v>4.28</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.47</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.59</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.44</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.03</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.56</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.21</v>
+        <v>1.69</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.55</v>
+        <v>1.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.51</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.58</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.21</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.34</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.7</v>
+        <v>23.3</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.39</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.34</v>
+        <v>1.46</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.45</v>
+        <v>2.91</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.32</v>
+        <v>1.5</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.16</v>
+        <v>2.52</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.29</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.17</v>
       </c>
       <c r="AC2" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.35</v>
       </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>0.27</v>
+        <v>4.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.21</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41514.34722222222</v>
+        <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.45</v>
+        <v>1.83</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="J3" s="4" t="n">
         <v>0.96</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.71</v>
-      </c>
       <c r="K3" s="4" t="n">
-        <v>1.04</v>
+        <v>1.43</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.15</v>
+        <v>1.58</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.45</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.84</v>
+        <v>1.22</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.13</v>
+        <v>21.01</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.84</v>
+        <v>4</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2</v>
+        <v>2.66</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.74</v>
+        <v>2.67</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.85</v>
+        <v>1.16</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.73</v>
+        <v>1.05</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.97</v>
+        <v>1.23</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.63</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.04</v>
+        <v>5.05</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.53</v>
+        <v>0.74</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.17</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41514.35416666666</v>
+        <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.84</v>
+        <v>1.78</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.55</v>
+        <v>1.29</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.72</v>
+        <v>3.85</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.36</v>
+        <v>3.15</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.55</v>
+        <v>5.48</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.91</v>
+        <v>2.15</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.95</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.59</v>
+        <v>1.4</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.67</v>
+        <v>1.55</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.78</v>
+        <v>1.62</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.57</v>
+        <v>1.39</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.83</v>
+        <v>1.97</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.48</v>
+        <v>1.18</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>8.4</v>
+        <v>20.44</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.65</v>
+        <v>3.89</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.58</v>
+        <v>1.28</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.17</v>
+        <v>2.6</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.62</v>
+        <v>1.37</v>
       </c>
       <c r="Y4" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>2.27</v>
+        <v>4.97</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.72</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.67</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41514.36111111111</v>
+        <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.98</v>
+        <v>2.45</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.67</v>
+        <v>1.81</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.04</v>
+        <v>5.32</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.64</v>
+        <v>4.37</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.93</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.84</v>
+        <v>7.41</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.1</v>
+        <v>2.97</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.5</v>
+        <v>1.32</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.73</v>
+        <v>1.96</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.8</v>
+        <v>2.14</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.91</v>
+        <v>2.25</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.62</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.7</v>
+        <v>1.92</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.01</v>
+        <v>2.73</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.58</v>
+        <v>1.61</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10.24</v>
+        <v>28.45</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.99</v>
+        <v>5.36</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.77</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.38</v>
+        <v>3.61</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.74</v>
+        <v>1.9</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.28</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.35</v>
+        <v>3.6</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.59</v>
+        <v>1.56</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.5</v>
+        <v>1.39</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.65</v>
+        <v>1.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.84</v>
+        <v>2.24</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.51</v>
+        <v>6.73</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.37</v>
+        <v>1</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.82</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41514.36805555555</v>
+        <v>44781.86804398148</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.87</v>
+        <v>25.94</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.6</v>
+        <v>19.22</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.04</v>
+        <v>1.3</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.83</v>
+        <v>56.36</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.47</v>
+        <v>46.34</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.62</v>
+        <v>20.42</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.62</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.99</v>
+        <v>31.41</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.45</v>
+        <v>13.99</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.66</v>
+        <v>20.79</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.72</v>
+        <v>22.64</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>23.86</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.21</v>
+        <v>6.52</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.63</v>
+        <v>20.3</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.9</v>
+        <v>28.94</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.52</v>
+        <v>17.03</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.76</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>9.1</v>
+        <v>301.72</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.79</v>
+        <v>56.79</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.61</v>
+        <v>18.74</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.24</v>
+        <v>38.26</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.66</v>
+        <v>20.11</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.08</v>
+        <v>2.91</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.24</v>
+        <v>38.6</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.53</v>
+        <v>16.55</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.45</v>
+        <v>14.64</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.58</v>
+        <v>17.22</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.75</v>
+        <v>23.72</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.33</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.33</v>
+        <v>10.6</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41514.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>14.02</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41514.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>24.78</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41514.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41514.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>25.93</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41514.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>35.67</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>29.31</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>51.93</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>19.72</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>18.19</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>187.19</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>35.67</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>24.33</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>46.97</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>14.69</v>
+        <v>23.43</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_82.xlsx
+++ b/DATA_goal/Junction_Flooding_82.xlsx
@@ -456,7 +456,7 @@
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
@@ -467,7 +467,7 @@
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -655,103 +655,103 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.02</v>
+        <v>20.18</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.65</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.28</v>
+        <v>42.75</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.47</v>
+        <v>34.69</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.1</v>
+        <v>51.01</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.44</v>
+        <v>24.43</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.76</v>
+        <v>17.6</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.21</v>
+        <v>22.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>23.3</v>
+        <v>233</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.39</v>
+        <v>43.92</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.58</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.91</v>
+        <v>29.08</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.52</v>
+        <v>25.16</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.65</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.73</v>
+        <v>17.33</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.52</v>
+        <v>45.21</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.82</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.83</v>
+        <v>18.26</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.3</v>
+        <v>13.01</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.94</v>
+        <v>39.38</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.21</v>
+        <v>32.12</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.37</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.55</v>
+        <v>55.52</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.21</v>
+        <v>22.11</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.6</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="L3" s="4" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>1.58</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.16</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.01</v>
+        <v>210.14</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4</v>
+        <v>39.98</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.19</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.66</v>
+        <v>26.64</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.4</v>
+        <v>13.97</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.67</v>
+        <v>26.72</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.65</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.49</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.35</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.05</v>
+        <v>50.45</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.89</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.85</v>
+        <v>38.49</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.15</v>
+        <v>31.48</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.48</v>
+        <v>54.82</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.15</v>
+        <v>21.52</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.4</v>
+        <v>14.02</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.46</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.21</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.97</v>
+        <v>19.72</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.84</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>20.44</v>
+        <v>204.42</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.89</v>
+        <v>38.92</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.6</v>
+        <v>26.04</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.69</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.63</v>
+        <v>26.3</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.15</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.1</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.97</v>
+        <v>49.72</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.45</v>
+        <v>24.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.07</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.32</v>
+        <v>53.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.37</v>
+        <v>43.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.41</v>
+        <v>74.14</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.97</v>
+        <v>29.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.96</v>
+        <v>19.57</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.25</v>
+        <v>22.49</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.73</v>
+        <v>27.29</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.14</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>28.45</v>
+        <v>284.54</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.36</v>
+        <v>53.61</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.61</v>
+        <v>36.06</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.9</v>
+        <v>18.96</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.6</v>
+        <v>36.03</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.24</v>
+        <v>22.36</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.73</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.21</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_82.xlsx
+++ b/DATA_goal/Junction_Flooding_82.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.18</v>
+        <v>20.178</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.65</v>
+        <v>13.652</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.07</v>
+        <v>4.068</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>42.75</v>
+        <v>42.752</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>34.69</v>
+        <v>34.691</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.88</v>
+        <v>15.879</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>51.01</v>
+        <v>51.007</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>24.43</v>
+        <v>24.432</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.25</v>
+        <v>10.251</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.61</v>
+        <v>15.607</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.87</v>
+        <v>16.868</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.6</v>
+        <v>17.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.07</v>
+        <v>5.069</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>15.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>22.09</v>
+        <v>22.094</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>13.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.5</v>
+        <v>3.498</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.45</v>
+        <v>2.451</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>233</v>
+        <v>232.996</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>43.92</v>
+        <v>43.923</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.58</v>
+        <v>14.575</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>29.08</v>
+        <v>29.082</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15</v>
+        <v>14.996</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>25.16</v>
+        <v>25.159</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.87</v>
+        <v>12.874</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.654</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.65</v>
+        <v>13.651</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.33</v>
+        <v>17.331</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>3.457</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>45.21</v>
+        <v>45.214</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.1</v>
+        <v>8.105</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.22</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="3">
@@ -759,28 +759,28 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.26</v>
+        <v>18.256</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.01</v>
+        <v>13.008</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.87</v>
+        <v>1.871</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>39.38</v>
+        <v>39.377</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>32.12</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.37</v>
+        <v>14.367</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>55.52</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.11</v>
+        <v>22.106</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>9.6</v>
@@ -789,73 +789,73 @@
         <v>14.29</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.78</v>
+        <v>15.778</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.5</v>
+        <v>16.502</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>4.59</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.29</v>
+        <v>14.287</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.18</v>
+        <v>20.179</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.22</v>
+        <v>12.223</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.582</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>1.14</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>210.14</v>
+        <v>210.143</v>
       </c>
       <c r="U3" s="4" t="n">
         <v>39.98</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.19</v>
+        <v>13.187</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.64</v>
+        <v>26.638</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.97</v>
+        <v>13.967</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.46</v>
+        <v>2.463</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.72</v>
+        <v>26.719</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.65</v>
+        <v>11.648</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.49</v>
+        <v>10.494</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.3</v>
+        <v>12.304</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.35</v>
+        <v>16.348</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>50.45</v>
+        <v>50.451</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.36</v>
+        <v>7.363</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.49</v>
+        <v>16.487</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.78</v>
+        <v>17.776</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.89</v>
+        <v>12.893</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.37</v>
+        <v>1.367</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>38.49</v>
+        <v>38.494</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>31.48</v>
+        <v>31.477</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.99</v>
+        <v>13.989</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>54.82</v>
+        <v>54.818</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.52</v>
+        <v>21.524</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>9.455</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.02</v>
+        <v>14.024</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.46</v>
+        <v>15.462</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.21</v>
+        <v>16.214</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.47</v>
+        <v>4.469</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.72</v>
+        <v>19.719</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.84</v>
+        <v>11.836</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.07</v>
+        <v>1.069</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.865</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>204.42</v>
+        <v>204.419</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>38.92</v>
+        <v>38.922</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>26.04</v>
+        <v>26.038</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.69</v>
+        <v>13.692</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.23</v>
+        <v>2.232</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>26.3</v>
+        <v>26.301</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.15</v>
+        <v>10.147</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.91</v>
+        <v>11.909</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.1</v>
+        <v>16.102</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>49.72</v>
+        <v>49.719</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.2</v>
+        <v>7.196</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.05</v>
+        <v>16.053</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>22.13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>25.94</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>56.36</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>46.34</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>20.42</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>79.70999999999999</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>31.41</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>20.79</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>22.64</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>23.86</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>28.94</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>17.03</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>301.72</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>56.79</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>38.26</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>20.11</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>17.22</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>23.72</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>72.34999999999999</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>23.43</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_82.xlsx
+++ b/DATA_goal/Junction_Flooding_82.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.5</v>
+        <v>24.502</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>18.07</v>
+        <v>18.065</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.38</v>
+        <v>1.376</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>53.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>43.68</v>
+        <v>43.684</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>19.28</v>
+        <v>19.282</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>74.14</v>
+        <v>74.139</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.67</v>
+        <v>29.668</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.17</v>
+        <v>13.172</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.57</v>
+        <v>19.565</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>21.37</v>
+        <v>21.368</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.49</v>
+        <v>22.494</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.16</v>
+        <v>6.159</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>19.17</v>
+        <v>19.174</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.29</v>
+        <v>27.289</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>16.14</v>
+        <v>16.139</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.886</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.956</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>284.54</v>
+        <v>284.541</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>53.61</v>
+        <v>53.614</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.7</v>
+        <v>17.698</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>36.06</v>
+        <v>36.065</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.96</v>
+        <v>18.964</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.83</v>
+        <v>2.826</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>36.03</v>
+        <v>36.026</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.63</v>
+        <v>15.633</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.87</v>
+        <v>13.865</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.29</v>
+        <v>16.295</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.36</v>
+        <v>22.356</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>67.26000000000001</v>
+        <v>67.25700000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.99</v>
+        <v>9.987</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>22.13</v>
+        <v>22.127</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.86804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>56.36</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>46.34</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>79.70999999999999</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>31.41</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>22.64</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>28.94</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>301.72</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>56.79</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>38.26</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>72.34999999999999</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>23.43</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_82.xlsx
+++ b/DATA_goal/Junction_Flooding_82.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.502</v>
+        <v>24.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>18.065</v>
+        <v>18.07</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.376</v>
+        <v>1.38</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>53.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>43.684</v>
+        <v>43.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>19.282</v>
+        <v>19.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>74.139</v>
+        <v>74.14</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.668</v>
+        <v>29.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.172</v>
+        <v>13.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.565</v>
+        <v>19.57</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>21.368</v>
+        <v>21.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.494</v>
+        <v>22.49</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.159</v>
+        <v>6.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>19.174</v>
+        <v>19.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.289</v>
+        <v>27.29</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>16.139</v>
+        <v>16.14</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.886</v>
+        <v>0.89</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.956</v>
+        <v>0.96</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>284.541</v>
+        <v>284.54</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>53.614</v>
+        <v>53.61</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.698</v>
+        <v>17.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>36.065</v>
+        <v>36.06</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.964</v>
+        <v>18.96</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.826</v>
+        <v>2.83</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>36.026</v>
+        <v>36.03</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.633</v>
+        <v>15.63</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.865</v>
+        <v>13.87</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.295</v>
+        <v>16.29</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.356</v>
+        <v>22.36</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>67.25700000000001</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.987</v>
+        <v>9.99</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>22.127</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>25.94</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>56.36</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>46.34</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>20.42</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>79.70999999999999</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>31.41</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>20.79</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>22.64</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>23.86</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>28.94</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>17.03</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>301.72</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>56.79</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>38.26</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>20.11</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>17.22</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>23.72</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>72.34999999999999</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>23.43</v>
+        <v>22.13</v>
       </c>
     </row>
   </sheetData>
